--- a/GeoRef.xlsx
+++ b/GeoRef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyohe\ishikawa_QGISimageclipPolygon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514D19F9-4F33-45B1-936E-4A4C6BC79735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32943742-C8FF-4257-95C6-E455F4988529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{F27AF0E3-575D-4EE2-935D-2DB3775488AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F27AF0E3-575D-4EE2-935D-2DB3775488AA}"/>
   </bookViews>
   <sheets>
     <sheet name="GDAL" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="215">
   <si>
     <t>a1</t>
   </si>
@@ -705,6 +705,52 @@
   </si>
   <si>
     <t>s6</t>
+  </si>
+  <si>
+    <t>1/5追加</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/17追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rs_connect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rs_connect</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -783,7 +829,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -832,13 +878,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,12 +917,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -874,6 +925,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,15 +1276,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960EE2AD-4742-40D3-8C86-26FFBD453D07}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+    <col min="3" max="3" width="95.08203125" customWidth="1"/>
     <col min="4" max="4" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1250,7 +1316,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.5" thickBot="1">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>45296</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1756,7 +1822,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.5" thickBot="1">
-      <c r="A45" s="10">
+      <c r="A45" s="8">
         <v>45308</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -2145,7 +2211,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="C76" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
         <v>48</v>
@@ -2153,10 +2219,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="C77" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2167,15 +2233,1580 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="10">
-        <v>45308</v>
+    <row r="79" spans="1:4" ht="18.5" thickBot="1">
+      <c r="A79" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="str">
+        <f>$C$76&amp;B80&amp;".gcp"&amp;$C$77&amp;B80&amp;".png"&amp;$C$78</f>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\g1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\g1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D80" t="str">
+        <f>$D$76&amp;$D$77&amp;B80&amp;$D$78</f>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\g1.tif"</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" ref="C81:C117" si="4">$C$76&amp;B81&amp;".gcp"&amp;$C$77&amp;B81&amp;".png"&amp;$C$78</f>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\g2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\g2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D81" t="str">
+        <f>$D$76&amp;$D$77&amp;B81&amp;$D$78</f>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\g2.tif"</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\g3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\g3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" ref="D82:D117" si="5">$D$76&amp;$D$77&amp;B82&amp;$D$78</f>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\g3.tif"</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\g4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\g4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\g4.tif"</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\g5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\g5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\g5.tif"</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\g6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\g6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\g6.tif"</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h1.tif"</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h10.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h10.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h10.tif"</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h11.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h11.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h11.tif"</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h12.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h12.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h12.tif"</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h13.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h13.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h13.tif"</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h14.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h14.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h14.tif"</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h15.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h15.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h15.tif"</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h2.tif"</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h3.tif"</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h4.tif"</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h5.tif"</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h6.tif"</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h7.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h7.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h7.tif"</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B99" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h8.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h8.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h8.tif"</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\h9.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\h9.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\h9.tif"</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\i1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\i1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\i1.tif"</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\i2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\i2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\i2.tif"</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\i3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\i3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\i3.tif"</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\i4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\i4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\i4.tif"</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\i5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\i5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\i5.tif"</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\i6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\i6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\i6.tif"</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\i7.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\i7.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\i7.tif"</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\i8.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\i8.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\i8.tif"</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\j1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\j1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\j1.tif"</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\j2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\j2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\j2.tif"</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\j3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\j3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\j3.tif"</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\j4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\j4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\j4.tif"</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\j5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\j5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\j5.tif"</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B114" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\j6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\j6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\j6.tif"</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\j7.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\j7.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\j7.tif"</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B116" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\j8.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\j8.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\j8.tif"</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B117" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="4"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\GCP\new\j9.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargePNG\new\j9.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="5"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0105\LargeGeoTIFF\j9.tif"</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="C120" t="s">
+        <v>212</v>
+      </c>
+      <c r="D120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="C121" t="s">
+        <v>87</v>
+      </c>
+      <c r="D121" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="C122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18.5" thickBot="1">
+      <c r="A123" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="str">
+        <f>$C$120&amp;B124&amp;".gcp"&amp;$C$121&amp;B124&amp;".png"&amp;$C$122</f>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D124" t="str">
+        <f>$D$120&amp;$D$121&amp;B124&amp;$D$122</f>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k1.tif"</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" ref="C125:C155" si="6">$C$120&amp;B125&amp;".gcp"&amp;$C$121&amp;B125&amp;".png"&amp;$C$122</f>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k10.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k10.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" ref="D125:D155" si="7">$D$120&amp;$D$121&amp;B125&amp;$D$122</f>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k10.tif"</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B126" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k11.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k11.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k11.tif"</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k12.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k12.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k12.tif"</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k13.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k13.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k13.tif"</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B129" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k14.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k14.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k14.tif"</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k15.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k15.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k15.tif"</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k2.tif"</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k3.tif"</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k4.tif"</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k5.tif"</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k6.tif"</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k7.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k7.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k7.tif"</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k8.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k8.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k8.tif"</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\k9.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\k9.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\k9.tif"</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B139" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\l1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\l1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\l1.tif"</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B140" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\l2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\l2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\l2.tif"</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B141" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\l3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\l3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\l3.tif"</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B142" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\l4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\l4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\l4.tif"</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B143" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\l5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\l5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\l5.tif"</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B144" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\l6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\l6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\l6.tif"</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B145" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\l7.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\l7.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\l7.tif"</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B146" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\l8.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\l8.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\l8.tif"</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B147" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\l9.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\l9.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\l9.tif"</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B148" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\m1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\m1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\m1.tif"</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B149" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\m2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\m2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\m2.tif"</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B150" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\m3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\m3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\m3.tif"</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B151" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\m4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\m4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\m4.tif"</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B152" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\m5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\m5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\m5.tif"</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B153" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\m6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\m6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\m6.tif"</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B154" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\m7.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\m7.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\m7.tif"</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="6"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\GCP\new\m8.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargePNG\new\m8.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="7"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0117\LargeGeoTIFF\m8.tif"</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="C158" t="s">
+        <v>208</v>
+      </c>
+      <c r="D158" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="C159" t="s">
+        <v>210</v>
+      </c>
+      <c r="D159" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="C160" t="s">
+        <v>52</v>
+      </c>
+      <c r="D160" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18.5" thickBot="1">
+      <c r="A161" s="8">
+        <v>45293</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" t="str">
+        <f>$C$158&amp;B162&amp;".gcp"&amp;$C$159&amp;B162&amp;".png"&amp;$C$160</f>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\n1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\n1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D162" t="str">
+        <f>$D$158&amp;$D$159&amp;B162&amp;$D$160</f>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\n1.tif"</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" ref="C163:C207" si="8">$C$158&amp;B163&amp;".gcp"&amp;$C$159&amp;B163&amp;".png"&amp;$C$160</f>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\n2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\n2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" ref="D163:D207" si="9">$D$158&amp;$D$159&amp;B163&amp;$D$160</f>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\n2.tif"</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\n3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\n3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\n3.tif"</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\o1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\o1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\o1.tif"</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\o2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\o2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\o2.tif"</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\o3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\o3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\o3.tif"</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\o4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\o4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\o4.tif"</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\o5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\o5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\o5.tif"</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\o6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\o6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\o6.tif"</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\o7.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\o7.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\o7.tif"</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\o8.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\o8.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\o8.tif"</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\p1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\p1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\p1.tif"</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\p2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\p2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\p2.tif"</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\p3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\p3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\p3.tif"</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="18.5" thickBot="1">
+      <c r="B176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\p4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\p4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\p4.tif"</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B177" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\q1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\q1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\q1.tif"</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\q2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\q2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\q2.tif"</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B179" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\q3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\q3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\q3.tif"</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\q4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\q4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\q4.tif"</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\q5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\q5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\q5.tif"</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\q6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\q6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\q6.tif"</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B183" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\q7.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\q7.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\q7.tif"</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\q8.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\q8.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\q8.tif"</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r1.tif"</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B186" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r10.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r10.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r10.tif"</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B187" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r11.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r11.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r11.tif"</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B188" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r12.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r12.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r12.tif"</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B189" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r13.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r13.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r13.tif"</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B190" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r14.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r14.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r14.tif"</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B191" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r15.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r15.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r15.tif"</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B192" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r2.tif"</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B193" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r3.tif"</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B194" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r4.tif"</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B195" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r5.tif"</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B196" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r6.tif"</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B197" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r7.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r7.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r7.tif"</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B198" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r8.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r8.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r8.tif"</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B199" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\r9.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\r9.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\r9.tif"</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\s1.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\s1.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\s1.tif"</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\s2.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\s2.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\s2.tif"</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\s3.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\s3.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\s3.tif"</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\s4.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\s4.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\s4.tif"</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B204" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\s5.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\s5.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\s5.tif"</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" ht="18.5" thickBot="1">
+      <c r="B205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\s6.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\s6.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\s6.tif"</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="8"/>
+        <v>gdal_translate -of GTiff --optfile "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\GCP\rs_connect.gcp" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargePNG\rs_connect.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png"</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="9"/>
+        <v>gdalwarp -r near -order 1 -t_srs EPSG:4612 "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\temp.png" "C:\Users\kyohe\ishikawa_QGISimageclipPolygon\0102\LargeGeoTIFF\rs_connect.tif"</v>
       </c>
     </row>
   </sheetData>
@@ -2188,10 +3819,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F867F1BB-ABC6-4743-BF08-84612CAD8A5B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2200,22 +3831,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60.5" customHeight="1" thickBot="1">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.5" thickBot="1">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>45296</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="11"/>
       <c r="I2" s="5" t="s">
         <v>44</v>
       </c>
@@ -3216,17 +4847,17 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="18.5" thickBot="1">
-      <c r="A41" s="10">
+      <c r="A41" s="8">
         <v>45308</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="11"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="18.5" thickBot="1">
@@ -3975,7 +5606,7 @@
         <v>7609</v>
       </c>
       <c r="I69" s="4" t="str">
-        <f t="shared" ref="I69:I75" si="1">"-gcp 0 "&amp;H69-1&amp;" "&amp;D69&amp;" "&amp;C69&amp;" -gcp "&amp;G69-1&amp;" 0 "&amp;F69&amp;" "&amp;E69&amp;" -gcp 0 0 "&amp;D69&amp;" "&amp;E69&amp;" -gcp "&amp;G69-1&amp;" "&amp;H69-1&amp;" "&amp;F69&amp;" "&amp;C69</f>
+        <f t="shared" ref="I69:I132" si="1">"-gcp 0 "&amp;H69-1&amp;" "&amp;D69&amp;" "&amp;C69&amp;" -gcp "&amp;G69-1&amp;" 0 "&amp;F69&amp;" "&amp;E69&amp;" -gcp 0 0 "&amp;D69&amp;" "&amp;E69&amp;" -gcp "&amp;G69-1&amp;" "&amp;H69-1&amp;" "&amp;F69&amp;" "&amp;C69</f>
         <v>-gcp 0 7608 136.9071885 37.213575 -gcp 6310 0 136.941047 37.246075 -gcp 0 0 136.9071885 37.246075 -gcp 6310 7608 136.941047 37.213575</v>
       </c>
     </row>
@@ -4040,14 +5671,14 @@
       <c r="A73" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="7" t="s">
+      <c r="D73" s="11"/>
+      <c r="E73" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="8"/>
+      <c r="F73" s="11"/>
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:9" ht="18.5" thickBot="1">
@@ -4120,6 +5751,10 @@
       <c r="H76">
         <v>7519</v>
       </c>
+      <c r="I76" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7518 137.3214235 37.435289 -gcp 7723 0 137.362862 37.46731167 -gcp 0 0 137.3214235 37.46731167 -gcp 7723 7518 137.362862 37.435289</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="18.5" thickBot="1">
       <c r="B77" s="1" t="s">
@@ -4143,6 +5778,10 @@
       <c r="H77">
         <v>7522</v>
       </c>
+      <c r="I77" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7521 137.279985 37.46731167 -gcp 7723 0 137.3214235 37.49933433 -gcp 0 0 137.279985 37.49933433 -gcp 7723 7521 137.3214235 37.46731167</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="18.5" thickBot="1">
       <c r="B78" s="1" t="s">
@@ -4166,6 +5805,10 @@
       <c r="H78">
         <v>7522</v>
       </c>
+      <c r="I78" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7521 137.3214235 37.46731167 -gcp 7723 0 137.362862 37.49933433 -gcp 0 0 137.3214235 37.49933433 -gcp 7723 7521 137.362862 37.46731167</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="18.5" thickBot="1">
       <c r="B79" s="1" t="s">
@@ -4189,6 +5832,10 @@
       <c r="H79">
         <v>7525</v>
       </c>
+      <c r="I79" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7524 137.279985 37.49933433 -gcp 7723 0 137.3214235 37.531357 -gcp 0 0 137.279985 37.531357 -gcp 7723 7524 137.3214235 37.49933433</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="18.5" thickBot="1">
       <c r="B80" s="1" t="s">
@@ -4212,8 +5859,12 @@
       <c r="H80">
         <v>7525</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I80" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7524 137.3214235 37.49933433 -gcp 7723 0 137.362862 37.531357 -gcp 0 0 137.3214235 37.531357 -gcp 7723 7524 137.362862 37.49933433</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="18.5" thickBot="1">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -4235,8 +5886,12 @@
       <c r="H81">
         <v>7949</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I81" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7948 136.941118 37.181883 -gcp 7016 0 136.978765 37.2158494 -gcp 0 0 136.941118 37.2158494 -gcp 7016 7948 136.978765 37.181883</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="18.5" thickBot="1">
       <c r="B82" s="1" t="s">
         <v>104</v>
       </c>
@@ -4258,8 +5913,12 @@
       <c r="H82">
         <v>7959</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I82" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7958 136.941118 37.2837822 -gcp 7016 0 136.978765 37.3177486 -gcp 0 0 136.941118 37.3177486 -gcp 7016 7958 136.978765 37.2837822</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="18.5" thickBot="1">
       <c r="B83" s="1" t="s">
         <v>105</v>
       </c>
@@ -4281,8 +5940,12 @@
       <c r="H83">
         <v>7959</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I83" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7958 136.978765 37.2837822 -gcp 7016 0 137.016412 37.3177486 -gcp 0 0 136.978765 37.3177486 -gcp 7016 7958 137.016412 37.2837822</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="18.5" thickBot="1">
       <c r="B84" s="1" t="s">
         <v>106</v>
       </c>
@@ -4304,8 +5967,12 @@
       <c r="H84">
         <v>7959</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I84" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7958 137.016412 37.2837822 -gcp 7016 0 137.054059 37.3177486 -gcp 0 0 137.016412 37.3177486 -gcp 7016 7958 137.054059 37.2837822</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="18.5" thickBot="1">
       <c r="B85" s="1" t="s">
         <v>107</v>
       </c>
@@ -4327,8 +5994,12 @@
       <c r="H85">
         <v>7963</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I85" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7962 136.941118 37.3177486 -gcp 7016 0 136.978765 37.351715 -gcp 0 0 136.941118 37.351715 -gcp 7016 7962 136.978765 37.3177486</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="18.5" thickBot="1">
       <c r="B86" s="1" t="s">
         <v>108</v>
       </c>
@@ -4350,8 +6021,12 @@
       <c r="H86">
         <v>7963</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I86" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7962 136.978765 37.3177486 -gcp 7016 0 137.016412 37.351715 -gcp 0 0 136.978765 37.351715 -gcp 7016 7962 137.016412 37.3177486</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="18.5" thickBot="1">
       <c r="B87" s="1" t="s">
         <v>109</v>
       </c>
@@ -4373,8 +6048,12 @@
       <c r="H87">
         <v>7963</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I87" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7962 137.016412 37.3177486 -gcp 7016 0 137.054059 37.351715 -gcp 0 0 137.016412 37.351715 -gcp 7016 7962 137.054059 37.3177486</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="18.5" thickBot="1">
       <c r="B88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4396,8 +6075,12 @@
       <c r="H88">
         <v>7949</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I88" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7948 136.978765 37.181883 -gcp 7016 0 137.016412 37.2158494 -gcp 0 0 136.978765 37.2158494 -gcp 7016 7948 137.016412 37.181883</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="18.5" thickBot="1">
       <c r="B89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4419,8 +6102,12 @@
       <c r="H89">
         <v>7949</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I89" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7948 137.016412 37.181883 -gcp 7016 0 137.054059 37.2158494 -gcp 0 0 137.016412 37.2158494 -gcp 7016 7948 137.054059 37.181883</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="18.5" thickBot="1">
       <c r="B90" s="1" t="s">
         <v>98</v>
       </c>
@@ -4442,8 +6129,12 @@
       <c r="H90">
         <v>7952</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I90" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7951 136.941118 37.2158494 -gcp 7016 0 136.978765 37.2498158 -gcp 0 0 136.941118 37.2498158 -gcp 7016 7951 136.978765 37.2158494</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="18.5" thickBot="1">
       <c r="B91" s="1" t="s">
         <v>99</v>
       </c>
@@ -4465,8 +6156,12 @@
       <c r="H91">
         <v>7952</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I91" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7951 136.978765 37.2158494 -gcp 7016 0 137.016412 37.2498158 -gcp 0 0 136.978765 37.2498158 -gcp 7016 7951 137.016412 37.2158494</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="18.5" thickBot="1">
       <c r="B92" s="1" t="s">
         <v>100</v>
       </c>
@@ -4488,8 +6183,12 @@
       <c r="H92">
         <v>7952</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I92" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7951 137.016412 37.2158494 -gcp 7016 0 137.054059 37.2498158 -gcp 0 0 137.016412 37.2498158 -gcp 7016 7951 137.054059 37.2158494</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="18.5" thickBot="1">
       <c r="B93" s="1" t="s">
         <v>101</v>
       </c>
@@ -4511,8 +6210,12 @@
       <c r="H93">
         <v>7956</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I93" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7955 136.941118 37.2498158 -gcp 7016 0 136.978765 37.2837822 -gcp 0 0 136.941118 37.2837822 -gcp 7016 7955 136.978765 37.2498158</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="18.5" thickBot="1">
       <c r="B94" s="1" t="s">
         <v>102</v>
       </c>
@@ -4534,8 +6237,12 @@
       <c r="H94">
         <v>7956</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I94" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7955 136.978765 37.2498158 -gcp 7016 0 137.016412 37.2837822 -gcp 0 0 136.978765 37.2837822 -gcp 7016 7955 137.016412 37.2498158</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="18.5" thickBot="1">
       <c r="B95" s="1" t="s">
         <v>103</v>
       </c>
@@ -4557,8 +6264,12 @@
       <c r="H95">
         <v>7956</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I95" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7955 137.016412 37.2498158 -gcp 7016 0 137.054059 37.2837822 -gcp 0 0 137.016412 37.2837822 -gcp 7016 7955 137.054059 37.2498158</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="18.5" thickBot="1">
       <c r="B96" s="1" t="s">
         <v>110</v>
       </c>
@@ -4580,8 +6291,12 @@
       <c r="H96">
         <v>7911</v>
       </c>
-    </row>
-    <row r="97" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I96" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7910 137.076159 37.243904 -gcp 6454 0 137.1107915 37.277684 -gcp 0 0 137.076159 37.277684 -gcp 6454 7910 137.1107915 37.243904</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="18.5" thickBot="1">
       <c r="B97" s="1" t="s">
         <v>111</v>
       </c>
@@ -4603,8 +6318,12 @@
       <c r="H97">
         <v>7911</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I97" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7910 137.1107915 37.243904 -gcp 6454 0 137.145424 37.277684 -gcp 0 0 137.1107915 37.277684 -gcp 6454 7910 137.145424 37.243904</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="18.5" thickBot="1">
       <c r="B98" s="1" t="s">
         <v>112</v>
       </c>
@@ -4626,8 +6345,12 @@
       <c r="H98">
         <v>7915</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I98" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7914 137.076159 37.277684 -gcp 6454 0 137.1107915 37.311464 -gcp 0 0 137.076159 37.311464 -gcp 6454 7914 137.1107915 37.277684</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="18.5" thickBot="1">
       <c r="B99" s="1" t="s">
         <v>113</v>
       </c>
@@ -4649,8 +6372,12 @@
       <c r="H99">
         <v>7915</v>
       </c>
-    </row>
-    <row r="100" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I99" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7914 137.1107915 37.277684 -gcp 6454 0 137.145424 37.311464 -gcp 0 0 137.1107915 37.311464 -gcp 6454 7914 137.145424 37.277684</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="18.5" thickBot="1">
       <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
@@ -4672,8 +6399,12 @@
       <c r="H100">
         <v>7919</v>
       </c>
-    </row>
-    <row r="101" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I100" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7918 137.076159 37.311464 -gcp 6454 0 137.1107915 37.345244 -gcp 0 0 137.076159 37.345244 -gcp 6454 7918 137.1107915 37.311464</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="18.5" thickBot="1">
       <c r="B101" s="1" t="s">
         <v>115</v>
       </c>
@@ -4695,8 +6426,12 @@
       <c r="H101">
         <v>7919</v>
       </c>
-    </row>
-    <row r="102" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I101" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7918 137.1107915 37.311464 -gcp 6454 0 137.145424 37.345244 -gcp 0 0 137.1107915 37.345244 -gcp 6454 7918 137.145424 37.311464</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="18.5" thickBot="1">
       <c r="B102" s="1" t="s">
         <v>116</v>
       </c>
@@ -4718,8 +6453,12 @@
       <c r="H102">
         <v>7922</v>
       </c>
-    </row>
-    <row r="103" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I102" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7921 137.076159 37.345244 -gcp 6454 0 137.1107915 37.379024 -gcp 0 0 137.076159 37.379024 -gcp 6454 7921 137.1107915 37.345244</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="18.5" thickBot="1">
       <c r="B103" s="1" t="s">
         <v>117</v>
       </c>
@@ -4741,8 +6480,12 @@
       <c r="H103">
         <v>7922</v>
       </c>
-    </row>
-    <row r="104" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I103" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7921 137.1107915 37.345244 -gcp 6454 0 137.145424 37.379024 -gcp 0 0 137.1107915 37.379024 -gcp 6454 7921 137.145424 37.345244</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="18.5" thickBot="1">
       <c r="B104" s="1" t="s">
         <v>118</v>
       </c>
@@ -4764,8 +6507,12 @@
       <c r="H104">
         <v>7980</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I104" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7979 137.144136 37.290261 -gcp 7751 0 137.185726 37.324312 -gcp 0 0 137.144136 37.324312 -gcp 7751 7979 137.185726 37.290261</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="18.5" thickBot="1">
       <c r="B105" s="1" t="s">
         <v>119</v>
       </c>
@@ -4787,8 +6534,12 @@
       <c r="H105">
         <v>7916</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I105" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7915 137.185726 37.290261 -gcp 7751 0 137.227316 37.324041 -gcp 0 0 137.185726 37.324041 -gcp 7751 7915 137.227316 37.290261</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="18.5" thickBot="1">
       <c r="B106" s="1" t="s">
         <v>120</v>
       </c>
@@ -4810,8 +6561,12 @@
       <c r="H106">
         <v>7916</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I106" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7915 137.227316 37.290261 -gcp 7751 0 137.268906 37.324041 -gcp 0 0 137.227316 37.324041 -gcp 7751 7915 137.268906 37.290261</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="18.5" thickBot="1">
       <c r="B107" s="1" t="s">
         <v>121</v>
       </c>
@@ -4833,8 +6588,12 @@
       <c r="H107">
         <v>7983</v>
       </c>
-    </row>
-    <row r="108" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I107" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7982 137.144136 37.324312 -gcp 7751 0 137.185726 37.358363 -gcp 0 0 137.144136 37.358363 -gcp 7751 7982 137.185726 37.324312</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="18.5" thickBot="1">
       <c r="B108" s="1" t="s">
         <v>122</v>
       </c>
@@ -4856,8 +6615,12 @@
       <c r="H108">
         <v>7983</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I108" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7982 137.185726 37.324312 -gcp 7751 0 137.227316 37.358363 -gcp 0 0 137.185726 37.358363 -gcp 7751 7982 137.227316 37.324312</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="18.5" thickBot="1">
       <c r="B109" s="1" t="s">
         <v>123</v>
       </c>
@@ -4879,8 +6642,12 @@
       <c r="H109">
         <v>7983</v>
       </c>
-    </row>
-    <row r="110" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I109" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7982 137.227316 37.324312 -gcp 7751 0 137.268906 37.358363 -gcp 0 0 137.227316 37.358363 -gcp 7751 7982 137.268906 37.324312</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="18.5" thickBot="1">
       <c r="B110" s="1" t="s">
         <v>124</v>
       </c>
@@ -4902,8 +6669,12 @@
       <c r="H110">
         <v>7987</v>
       </c>
-    </row>
-    <row r="111" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I110" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7986 137.144136 37.358363 -gcp 7751 0 137.185726 37.392414 -gcp 0 0 137.144136 37.392414 -gcp 7751 7986 137.185726 37.358363</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="18.5" thickBot="1">
       <c r="B111" s="1" t="s">
         <v>125</v>
       </c>
@@ -4925,8 +6696,12 @@
       <c r="H111">
         <v>7987</v>
       </c>
-    </row>
-    <row r="112" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I111" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7986 137.185726 37.358363 -gcp 7751 0 137.227316 37.392414 -gcp 0 0 137.185726 37.392414 -gcp 7751 7986 137.227316 37.358363</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="18.5" thickBot="1">
       <c r="B112" s="1" t="s">
         <v>126</v>
       </c>
@@ -4948,22 +6723,29 @@
       <c r="H112">
         <v>7987</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="18.5" thickBot="1"/>
-    <row r="114" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A114" s="10" t="s">
+      <c r="I112" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7986 137.227316 37.358363 -gcp 7751 0 137.268906 37.392414 -gcp 0 0 137.227316 37.392414 -gcp 7751 7986 137.268906 37.358363</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="18.5" thickBot="1">
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" spans="1:9" ht="18.5" thickBot="1">
+      <c r="A114" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="7" t="s">
+      <c r="D114" s="11"/>
+      <c r="E114" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="1:8" ht="18.5" thickBot="1">
+      <c r="F114" s="11"/>
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" spans="1:9" ht="18.5" thickBot="1">
       <c r="C115" s="3" t="s">
         <v>38</v>
       </c>
@@ -4982,8 +6764,9 @@
       <c r="H115" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:9" ht="18.5" thickBot="1">
       <c r="B116" s="1" t="s">
         <v>128</v>
       </c>
@@ -5005,8 +6788,12 @@
       <c r="H116">
         <v>7949</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I116" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7948 136.941118 37.181883 -gcp 7016 0 136.978765 37.2158494 -gcp 0 0 136.941118 37.2158494 -gcp 7016 7948 136.978765 37.181883</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="18.5" thickBot="1">
       <c r="B117" s="1" t="s">
         <v>137</v>
       </c>
@@ -5028,8 +6815,12 @@
       <c r="H117">
         <v>7959</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I117" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7958 136.941118 37.2837822 -gcp 7016 0 136.978765 37.3177486 -gcp 0 0 136.941118 37.3177486 -gcp 7016 7958 136.978765 37.2837822</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="18.5" thickBot="1">
       <c r="B118" s="1" t="s">
         <v>138</v>
       </c>
@@ -5051,8 +6842,12 @@
       <c r="H118">
         <v>7959</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I118" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7958 136.978765 37.2837822 -gcp 7016 0 137.016412 37.3177486 -gcp 0 0 136.978765 37.3177486 -gcp 7016 7958 137.016412 37.2837822</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="18.5" thickBot="1">
       <c r="B119" s="1" t="s">
         <v>139</v>
       </c>
@@ -5074,8 +6869,12 @@
       <c r="H119">
         <v>7959</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I119" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7958 137.016412 37.2837822 -gcp 7016 0 137.054059 37.3177486 -gcp 0 0 137.016412 37.3177486 -gcp 7016 7958 137.054059 37.2837822</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="18.5" thickBot="1">
       <c r="B120" s="1" t="s">
         <v>140</v>
       </c>
@@ -5097,8 +6896,12 @@
       <c r="H120">
         <v>7963</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I120" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7962 136.941118 37.3177486 -gcp 7016 0 136.978765 37.351715 -gcp 0 0 136.941118 37.351715 -gcp 7016 7962 136.978765 37.3177486</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="18.5" thickBot="1">
       <c r="B121" s="1" t="s">
         <v>141</v>
       </c>
@@ -5120,8 +6923,12 @@
       <c r="H121">
         <v>7963</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I121" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7962 136.978765 37.3177486 -gcp 7016 0 137.016412 37.351715 -gcp 0 0 136.978765 37.351715 -gcp 7016 7962 137.016412 37.3177486</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="18.5" thickBot="1">
       <c r="B122" s="1" t="s">
         <v>142</v>
       </c>
@@ -5143,8 +6950,12 @@
       <c r="H122">
         <v>7963</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I122" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7962 137.016412 37.3177486 -gcp 7016 0 137.054059 37.351715 -gcp 0 0 137.016412 37.351715 -gcp 7016 7962 137.054059 37.3177486</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="18.5" thickBot="1">
       <c r="B123" s="1" t="s">
         <v>129</v>
       </c>
@@ -5166,8 +6977,12 @@
       <c r="H123">
         <v>7949</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I123" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7948 136.978765 37.181883 -gcp 7016 0 137.016412 37.2158494 -gcp 0 0 136.978765 37.2158494 -gcp 7016 7948 137.016412 37.181883</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="18.5" thickBot="1">
       <c r="B124" s="1" t="s">
         <v>130</v>
       </c>
@@ -5189,8 +7004,12 @@
       <c r="H124">
         <v>7949</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I124" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7948 137.016412 37.181883 -gcp 7016 0 137.054059 37.2158494 -gcp 0 0 137.016412 37.2158494 -gcp 7016 7948 137.054059 37.181883</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="18.5" thickBot="1">
       <c r="B125" s="1" t="s">
         <v>131</v>
       </c>
@@ -5212,8 +7031,12 @@
       <c r="H125">
         <v>7952</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I125" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7951 136.941118 37.2158494 -gcp 7016 0 136.978765 37.2498158 -gcp 0 0 136.941118 37.2498158 -gcp 7016 7951 136.978765 37.2158494</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="18.5" thickBot="1">
       <c r="B126" s="1" t="s">
         <v>132</v>
       </c>
@@ -5235,8 +7058,12 @@
       <c r="H126">
         <v>7952</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I126" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7951 136.978765 37.2158494 -gcp 7016 0 137.016412 37.2498158 -gcp 0 0 136.978765 37.2498158 -gcp 7016 7951 137.016412 37.2158494</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="18.5" thickBot="1">
       <c r="B127" s="1" t="s">
         <v>133</v>
       </c>
@@ -5258,8 +7085,12 @@
       <c r="H127">
         <v>7952</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I127" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7951 137.016412 37.2158494 -gcp 7016 0 137.054059 37.2498158 -gcp 0 0 137.016412 37.2498158 -gcp 7016 7951 137.054059 37.2158494</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="18.5" thickBot="1">
       <c r="B128" s="1" t="s">
         <v>134</v>
       </c>
@@ -5281,8 +7112,12 @@
       <c r="H128">
         <v>7956</v>
       </c>
-    </row>
-    <row r="129" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I128" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7955 136.941118 37.2498158 -gcp 7016 0 136.978765 37.2837822 -gcp 0 0 136.941118 37.2837822 -gcp 7016 7955 136.978765 37.2498158</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="18.5" thickBot="1">
       <c r="B129" s="1" t="s">
         <v>135</v>
       </c>
@@ -5304,8 +7139,12 @@
       <c r="H129">
         <v>7956</v>
       </c>
-    </row>
-    <row r="130" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I129" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7955 136.978765 37.2498158 -gcp 7016 0 137.016412 37.2837822 -gcp 0 0 136.978765 37.2837822 -gcp 7016 7955 137.016412 37.2498158</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="18.5" thickBot="1">
       <c r="B130" s="1" t="s">
         <v>136</v>
       </c>
@@ -5327,8 +7166,12 @@
       <c r="H130">
         <v>7956</v>
       </c>
-    </row>
-    <row r="131" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I130" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7955 137.016412 37.2498158 -gcp 7016 0 137.054059 37.2837822 -gcp 0 0 137.016412 37.2837822 -gcp 7016 7955 137.054059 37.2498158</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="18.5" thickBot="1">
       <c r="B131" s="1" t="s">
         <v>151</v>
       </c>
@@ -5350,8 +7193,12 @@
       <c r="H131">
         <v>7980</v>
       </c>
-    </row>
-    <row r="132" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I131" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7979 137.144136 37.290261 -gcp 7751 0 137.185726 37.324312 -gcp 0 0 137.144136 37.324312 -gcp 7751 7979 137.185726 37.290261</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="18.5" thickBot="1">
       <c r="B132" s="1" t="s">
         <v>152</v>
       </c>
@@ -5373,8 +7220,12 @@
       <c r="H132">
         <v>7916</v>
       </c>
-    </row>
-    <row r="133" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I132" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-gcp 0 7915 137.185726 37.290261 -gcp 7751 0 137.227316 37.324041 -gcp 0 0 137.185726 37.324041 -gcp 7751 7915 137.227316 37.290261</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="18.5" thickBot="1">
       <c r="B133" s="1" t="s">
         <v>153</v>
       </c>
@@ -5396,8 +7247,12 @@
       <c r="H133">
         <v>7916</v>
       </c>
-    </row>
-    <row r="134" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I133" s="4" t="str">
+        <f t="shared" ref="I133:I195" si="2">"-gcp 0 "&amp;H133-1&amp;" "&amp;D133&amp;" "&amp;C133&amp;" -gcp "&amp;G133-1&amp;" 0 "&amp;F133&amp;" "&amp;E133&amp;" -gcp 0 0 "&amp;D133&amp;" "&amp;E133&amp;" -gcp "&amp;G133-1&amp;" "&amp;H133-1&amp;" "&amp;F133&amp;" "&amp;C133</f>
+        <v>-gcp 0 7915 137.227316 37.290261 -gcp 7751 0 137.268906 37.324041 -gcp 0 0 137.227316 37.324041 -gcp 7751 7915 137.268906 37.290261</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="18.5" thickBot="1">
       <c r="B134" s="1" t="s">
         <v>154</v>
       </c>
@@ -5419,8 +7274,12 @@
       <c r="H134">
         <v>7983</v>
       </c>
-    </row>
-    <row r="135" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I134" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7982 137.144136 37.324312 -gcp 7751 0 137.185726 37.358363 -gcp 0 0 137.144136 37.358363 -gcp 7751 7982 137.185726 37.324312</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="18.5" thickBot="1">
       <c r="B135" s="1" t="s">
         <v>155</v>
       </c>
@@ -5442,8 +7301,12 @@
       <c r="H135">
         <v>7983</v>
       </c>
-    </row>
-    <row r="136" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I135" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7982 137.185726 37.324312 -gcp 7751 0 137.227316 37.358363 -gcp 0 0 137.185726 37.358363 -gcp 7751 7982 137.227316 37.324312</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="18.5" thickBot="1">
       <c r="B136" s="1" t="s">
         <v>156</v>
       </c>
@@ -5465,8 +7328,12 @@
       <c r="H136">
         <v>7983</v>
       </c>
-    </row>
-    <row r="137" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I136" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7982 137.227316 37.324312 -gcp 7751 0 137.268906 37.358363 -gcp 0 0 137.227316 37.358363 -gcp 7751 7982 137.268906 37.324312</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="18.5" thickBot="1">
       <c r="B137" s="1" t="s">
         <v>157</v>
       </c>
@@ -5488,8 +7355,12 @@
       <c r="H137">
         <v>7987</v>
       </c>
-    </row>
-    <row r="138" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I137" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7986 137.144136 37.358363 -gcp 7751 0 137.185726 37.392414 -gcp 0 0 137.144136 37.392414 -gcp 7751 7986 137.185726 37.358363</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="18.5" thickBot="1">
       <c r="B138" s="1" t="s">
         <v>158</v>
       </c>
@@ -5511,8 +7382,12 @@
       <c r="H138">
         <v>7987</v>
       </c>
-    </row>
-    <row r="139" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I138" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7986 137.185726 37.358363 -gcp 7751 0 137.227316 37.392414 -gcp 0 0 137.185726 37.392414 -gcp 7751 7986 137.227316 37.358363</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="18.5" thickBot="1">
       <c r="B139" s="1" t="s">
         <v>159</v>
       </c>
@@ -5534,8 +7409,12 @@
       <c r="H139">
         <v>7987</v>
       </c>
-    </row>
-    <row r="140" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I139" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7986 137.227316 37.358363 -gcp 7751 0 137.268906 37.392414 -gcp 0 0 137.227316 37.392414 -gcp 7751 7986 137.268906 37.358363</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="18.5" thickBot="1">
       <c r="B140" s="1" t="s">
         <v>143</v>
       </c>
@@ -5557,8 +7436,12 @@
       <c r="H140">
         <v>7911</v>
       </c>
-    </row>
-    <row r="141" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I140" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7910 137.076159 37.243904 -gcp 6454 0 137.1107915 37.277684 -gcp 0 0 137.076159 37.277684 -gcp 6454 7910 137.1107915 37.243904</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="18.5" thickBot="1">
       <c r="B141" s="1" t="s">
         <v>144</v>
       </c>
@@ -5580,8 +7463,12 @@
       <c r="H141">
         <v>7911</v>
       </c>
-    </row>
-    <row r="142" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I141" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7910 137.1107915 37.243904 -gcp 6454 0 137.145424 37.277684 -gcp 0 0 137.1107915 37.277684 -gcp 6454 7910 137.145424 37.243904</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="18.5" thickBot="1">
       <c r="B142" s="1" t="s">
         <v>145</v>
       </c>
@@ -5603,8 +7490,12 @@
       <c r="H142">
         <v>7915</v>
       </c>
-    </row>
-    <row r="143" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I142" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7914 137.076159 37.277684 -gcp 6454 0 137.1107915 37.311464 -gcp 0 0 137.076159 37.311464 -gcp 6454 7914 137.1107915 37.277684</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="18.5" thickBot="1">
       <c r="B143" s="1" t="s">
         <v>146</v>
       </c>
@@ -5626,8 +7517,12 @@
       <c r="H143">
         <v>7915</v>
       </c>
-    </row>
-    <row r="144" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I143" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7914 137.1107915 37.277684 -gcp 6454 0 137.145424 37.311464 -gcp 0 0 137.1107915 37.311464 -gcp 6454 7914 137.145424 37.277684</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="18.5" thickBot="1">
       <c r="B144" s="1" t="s">
         <v>147</v>
       </c>
@@ -5649,8 +7544,12 @@
       <c r="H144">
         <v>7919</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I144" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7918 137.076159 37.311464 -gcp 6454 0 137.1107915 37.345244 -gcp 0 0 137.076159 37.345244 -gcp 6454 7918 137.1107915 37.311464</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="18.5" thickBot="1">
       <c r="B145" s="1" t="s">
         <v>148</v>
       </c>
@@ -5672,8 +7571,12 @@
       <c r="H145">
         <v>7919</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I145" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7918 137.1107915 37.311464 -gcp 6454 0 137.145424 37.345244 -gcp 0 0 137.1107915 37.345244 -gcp 6454 7918 137.145424 37.311464</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="18.5" thickBot="1">
       <c r="B146" s="1" t="s">
         <v>149</v>
       </c>
@@ -5695,8 +7598,12 @@
       <c r="H146">
         <v>7922</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I146" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7921 137.076159 37.345244 -gcp 6454 0 137.1107915 37.379024 -gcp 0 0 137.076159 37.379024 -gcp 6454 7921 137.1107915 37.345244</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="18.5" thickBot="1">
       <c r="B147" s="1" t="s">
         <v>150</v>
       </c>
@@ -5718,22 +7625,29 @@
       <c r="H147">
         <v>7922</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="18.5" thickBot="1"/>
-    <row r="149" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A149" s="10">
+      <c r="I147" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7921 137.1107915 37.345244 -gcp 6454 0 137.145424 37.379024 -gcp 0 0 137.1107915 37.379024 -gcp 6454 7921 137.145424 37.345244</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="18.5" thickBot="1">
+      <c r="I148" s="4"/>
+    </row>
+    <row r="149" spans="1:9" ht="18.5" thickBot="1">
+      <c r="A149" s="8">
         <v>45293</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D149" s="8"/>
-      <c r="E149" s="7" t="s">
+      <c r="D149" s="11"/>
+      <c r="E149" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F149" s="8"/>
-    </row>
-    <row r="150" spans="1:8" ht="18.5" thickBot="1">
+      <c r="F149" s="11"/>
+      <c r="I149" s="4"/>
+    </row>
+    <row r="150" spans="1:9" ht="18.5" thickBot="1">
       <c r="C150" s="3" t="s">
         <v>38</v>
       </c>
@@ -5752,8 +7666,9 @@
       <c r="H150" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I150" s="4"/>
+    </row>
+    <row r="151" spans="1:9" ht="18.5" thickBot="1">
       <c r="B151" s="1" t="s">
         <v>161</v>
       </c>
@@ -5775,8 +7690,12 @@
       <c r="H151">
         <v>8616</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I151" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8615 136.873425 37.297416 -gcp 6881 0 136.910348 37.334175 -gcp 0 0 136.873425 37.334175 -gcp 6881 8615 136.910348 37.297416</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="18.5" thickBot="1">
       <c r="B152" s="1" t="s">
         <v>162</v>
       </c>
@@ -5798,8 +7717,12 @@
       <c r="H152">
         <v>8620</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I152" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8619 136.873425 37.334175 -gcp 6881 0 136.910348 37.370934 -gcp 0 0 136.873425 37.370934 -gcp 6881 8619 136.910348 37.334175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="18.5" thickBot="1">
       <c r="B153" s="1" t="s">
         <v>163</v>
       </c>
@@ -5821,8 +7744,12 @@
       <c r="H153">
         <v>8624</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I153" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8623 136.873425 37.370934 -gcp 6881 0 136.910348 37.407693 -gcp 0 0 136.873425 37.407693 -gcp 6881 8623 136.910348 37.370934</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="18.5" thickBot="1">
       <c r="B154" s="1" t="s">
         <v>164</v>
       </c>
@@ -5844,8 +7771,12 @@
       <c r="H154">
         <v>7514</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I154" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7513 136.986337 37.324816 -gcp 6266 0 137.019961 37.356865 -gcp 0 0 136.986337 37.356865 -gcp 6266 7513 137.019961 37.324816</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="18.5" thickBot="1">
       <c r="B155" s="1" t="s">
         <v>165</v>
       </c>
@@ -5867,8 +7798,12 @@
       <c r="H155">
         <v>7514</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I155" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7513 137.019961 37.324816 -gcp 6266 0 137.053585 37.356865 -gcp 0 0 137.019961 37.356865 -gcp 6266 7513 137.053585 37.324816</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="18.5" thickBot="1">
       <c r="B156" s="1" t="s">
         <v>166</v>
       </c>
@@ -5890,8 +7825,12 @@
       <c r="H156">
         <v>7517</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I156" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7516 136.986337 37.356865 -gcp 6266 0 137.019961 37.388914 -gcp 0 0 136.986337 37.388914 -gcp 6266 7516 137.019961 37.356865</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="18.5" thickBot="1">
       <c r="B157" s="1" t="s">
         <v>167</v>
       </c>
@@ -5913,8 +7852,12 @@
       <c r="H157">
         <v>7517</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I157" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7516 137.019961 37.356865 -gcp 6266 0 137.053585 37.388914 -gcp 0 0 137.019961 37.388914 -gcp 6266 7516 137.053585 37.356865</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="18.5" thickBot="1">
       <c r="B158" s="1" t="s">
         <v>168</v>
       </c>
@@ -5936,8 +7879,12 @@
       <c r="H158">
         <v>7520</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I158" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7519 136.986337 37.388914 -gcp 6266 0 137.019961 37.420963 -gcp 0 0 136.986337 37.420963 -gcp 6266 7519 137.019961 37.388914</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="18.5" thickBot="1">
       <c r="B159" s="1" t="s">
         <v>169</v>
       </c>
@@ -5959,8 +7906,12 @@
       <c r="H159">
         <v>7520</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="18.5" thickBot="1">
+      <c r="I159" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7519 137.019961 37.388914 -gcp 6266 0 137.053585 37.420963 -gcp 0 0 137.019961 37.420963 -gcp 6266 7519 137.053585 37.388914</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="18.5" thickBot="1">
       <c r="B160" s="1" t="s">
         <v>170</v>
       </c>
@@ -5982,8 +7933,12 @@
       <c r="H160">
         <v>7524</v>
       </c>
-    </row>
-    <row r="161" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I160" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7523 136.986337 37.420963 -gcp 6266 0 137.019961 37.453012 -gcp 0 0 136.986337 37.453012 -gcp 6266 7523 137.019961 37.420963</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="18.5" thickBot="1">
       <c r="B161" s="1" t="s">
         <v>171</v>
       </c>
@@ -6005,8 +7960,12 @@
       <c r="H161">
         <v>7524</v>
       </c>
-    </row>
-    <row r="162" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I161" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7523 137.019961 37.420963 -gcp 6266 0 137.053585 37.453012 -gcp 0 0 137.019961 37.453012 -gcp 6266 7523 137.053585 37.420963</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" ht="18.5" thickBot="1">
       <c r="B162" s="1" t="s">
         <v>172</v>
       </c>
@@ -6028,8 +7987,12 @@
       <c r="H162">
         <v>8356</v>
       </c>
-    </row>
-    <row r="163" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I162" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8355 137.053871 37.338301 -gcp 8377 0 137.098818 37.373933 -gcp 0 0 137.053871 37.373933 -gcp 8377 8355 137.098818 37.338301</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="18.5" thickBot="1">
       <c r="B163" s="1" t="s">
         <v>173</v>
       </c>
@@ -6051,8 +8014,12 @@
       <c r="H163">
         <v>8360</v>
       </c>
-    </row>
-    <row r="164" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I163" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8359 137.053871 37.373933 -gcp 8377 0 137.098818 37.409565 -gcp 0 0 137.053871 37.409565 -gcp 8377 8359 137.098818 37.373933</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" ht="18.5" thickBot="1">
       <c r="B164" s="1" t="s">
         <v>174</v>
       </c>
@@ -6074,8 +8041,12 @@
       <c r="H164">
         <v>8364</v>
       </c>
-    </row>
-    <row r="165" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I164" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8363 137.053871 37.409565 -gcp 8377 0 137.098818 37.445197 -gcp 0 0 137.053871 37.445197 -gcp 8377 8363 137.098818 37.409565</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="18.5" thickBot="1">
       <c r="B165" s="1" t="s">
         <v>175</v>
       </c>
@@ -6097,8 +8068,12 @@
       <c r="H165">
         <v>8368</v>
       </c>
-    </row>
-    <row r="166" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I165" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8367 137.053871 37.445197 -gcp 8377 0 137.098818 37.480829 -gcp 0 0 137.053871 37.480829 -gcp 8377 8367 137.098818 37.445197</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="18.5" thickBot="1">
       <c r="B166" s="1" t="s">
         <v>183</v>
       </c>
@@ -6120,8 +8095,12 @@
       <c r="H166">
         <v>8151</v>
       </c>
-    </row>
-    <row r="167" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I166" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8150 137.098861 37.365358 -gcp 6309 0 137.132714 37.40010525 -gcp 0 0 137.098861 37.40010525 -gcp 6309 8150 137.132714 37.365358</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="18.5" thickBot="1">
       <c r="B167" s="1" t="s">
         <v>176</v>
       </c>
@@ -6143,8 +8122,12 @@
       <c r="H167">
         <v>8151</v>
       </c>
-    </row>
-    <row r="168" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I167" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8150 137.132714 37.365358 -gcp 6309 0 137.166567 37.40010525 -gcp 0 0 137.132714 37.40010525 -gcp 6309 8150 137.166567 37.365358</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" ht="18.5" thickBot="1">
       <c r="B168" s="1" t="s">
         <v>177</v>
       </c>
@@ -6166,8 +8149,12 @@
       <c r="H168">
         <v>8155</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I168" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8154 137.098861 37.40010525 -gcp 6309 0 137.132714 37.4348525 -gcp 0 0 137.098861 37.4348525 -gcp 6309 8154 137.132714 37.40010525</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="18.5" thickBot="1">
       <c r="B169" s="1" t="s">
         <v>178</v>
       </c>
@@ -6189,8 +8176,12 @@
       <c r="H169">
         <v>8155</v>
       </c>
-    </row>
-    <row r="170" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I169" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8154 137.132714 37.40010525 -gcp 6309 0 137.166567 37.4348525 -gcp 0 0 137.132714 37.4348525 -gcp 6309 8154 137.166567 37.40010525</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" ht="18.5" thickBot="1">
       <c r="B170" s="1" t="s">
         <v>179</v>
       </c>
@@ -6212,8 +8203,12 @@
       <c r="H170">
         <v>8159</v>
       </c>
-    </row>
-    <row r="171" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I170" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8158 137.098861 37.4348525 -gcp 6309 0 137.132714 37.46959975 -gcp 0 0 137.098861 37.46959975 -gcp 6309 8158 137.132714 37.4348525</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="18.5" thickBot="1">
       <c r="B171" s="1" t="s">
         <v>180</v>
       </c>
@@ -6235,8 +8230,12 @@
       <c r="H171">
         <v>8159</v>
       </c>
-    </row>
-    <row r="172" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I171" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8158 137.132714 37.4348525 -gcp 6309 0 137.166567 37.46959975 -gcp 0 0 137.132714 37.46959975 -gcp 6309 8158 137.166567 37.4348525</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" ht="18.5" thickBot="1">
       <c r="B172" s="1" t="s">
         <v>181</v>
       </c>
@@ -6258,8 +8257,12 @@
       <c r="H172">
         <v>8163</v>
       </c>
-    </row>
-    <row r="173" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I172" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8162 137.098861 37.46959975 -gcp 6309 0 137.132714 37.504347 -gcp 0 0 137.098861 37.504347 -gcp 6309 8162 137.132714 37.46959975</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" ht="18.5" thickBot="1">
       <c r="B173" s="1" t="s">
         <v>182</v>
       </c>
@@ -6281,8 +8284,12 @@
       <c r="H173">
         <v>8163</v>
       </c>
-    </row>
-    <row r="174" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I173" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8162 137.132714 37.46959975 -gcp 6309 0 137.166567 37.504347 -gcp 0 0 137.132714 37.504347 -gcp 6309 8162 137.166567 37.46959975</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" ht="18.5" thickBot="1">
       <c r="B174" s="1" t="s">
         <v>184</v>
       </c>
@@ -6304,8 +8311,12 @@
       <c r="H174">
         <v>7361</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I174" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7360 137.166846 37.379161 -gcp 7001 0 137.2044087 37.410536 -gcp 0 0 137.166846 37.410536 -gcp 7001 7360 137.2044087 37.379161</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" ht="18.5" thickBot="1">
       <c r="B175" s="1" t="s">
         <v>193</v>
       </c>
@@ -6327,8 +8338,12 @@
       <c r="H175">
         <v>7371</v>
       </c>
-    </row>
-    <row r="176" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I175" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7370 137.166846 37.473286 -gcp 7001 0 137.2044087 37.504661 -gcp 0 0 137.166846 37.504661 -gcp 7001 7370 137.2044087 37.473286</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" ht="18.5" thickBot="1">
       <c r="B176" s="1" t="s">
         <v>194</v>
       </c>
@@ -6350,8 +8365,12 @@
       <c r="H176">
         <v>7371</v>
       </c>
-    </row>
-    <row r="177" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I176" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7370 137.2044087 37.473286 -gcp 7001 0 137.2419713 37.504661 -gcp 0 0 137.2044087 37.504661 -gcp 7001 7370 137.2419713 37.473286</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="18.5" thickBot="1">
       <c r="B177" s="1" t="s">
         <v>195</v>
       </c>
@@ -6373,8 +8392,12 @@
       <c r="H177">
         <v>7371</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I177" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7370 137.2419713 37.473286 -gcp 7001 0 137.279534 37.504661 -gcp 0 0 137.2419713 37.504661 -gcp 7001 7370 137.279534 37.473286</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" ht="18.5" thickBot="1">
       <c r="B178" s="1" t="s">
         <v>196</v>
       </c>
@@ -6396,8 +8419,12 @@
       <c r="H178">
         <v>7374</v>
       </c>
-    </row>
-    <row r="179" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I178" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7373 137.166846 37.504661 -gcp 7001 0 137.2044087 37.536036 -gcp 0 0 137.166846 37.536036 -gcp 7001 7373 137.2044087 37.504661</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="18.5" thickBot="1">
       <c r="B179" s="1" t="s">
         <v>197</v>
       </c>
@@ -6419,8 +8446,12 @@
       <c r="H179">
         <v>7374</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I179" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7373 137.2044087 37.504661 -gcp 7001 0 137.2419713 37.536036 -gcp 0 0 137.2044087 37.536036 -gcp 7001 7373 137.2419713 37.504661</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" ht="18.5" thickBot="1">
       <c r="B180" s="1" t="s">
         <v>198</v>
       </c>
@@ -6442,8 +8473,12 @@
       <c r="H180">
         <v>7374</v>
       </c>
-    </row>
-    <row r="181" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I180" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7373 137.2419713 37.504661 -gcp 7001 0 137.279534 37.536036 -gcp 0 0 137.2419713 37.536036 -gcp 7001 7373 137.279534 37.504661</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" ht="18.5" thickBot="1">
       <c r="B181" s="1" t="s">
         <v>185</v>
       </c>
@@ -6465,8 +8500,12 @@
       <c r="H181">
         <v>7361</v>
       </c>
-    </row>
-    <row r="182" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I181" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7360 137.2044087 37.379161 -gcp 7001 0 137.2419713 37.410536 -gcp 0 0 137.2044087 37.410536 -gcp 7001 7360 137.2419713 37.379161</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" ht="18.5" thickBot="1">
       <c r="B182" s="1" t="s">
         <v>186</v>
       </c>
@@ -6488,8 +8527,12 @@
       <c r="H182">
         <v>7361</v>
       </c>
-    </row>
-    <row r="183" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I182" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7360 137.2419713 37.379161 -gcp 7001 0 137.279534 37.410536 -gcp 0 0 137.2419713 37.410536 -gcp 7001 7360 137.279534 37.379161</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="18.5" thickBot="1">
       <c r="B183" s="1" t="s">
         <v>187</v>
       </c>
@@ -6511,8 +8554,12 @@
       <c r="H183">
         <v>7364</v>
       </c>
-    </row>
-    <row r="184" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I183" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7363 137.166846 37.410536 -gcp 7001 0 137.2044087 37.441911 -gcp 0 0 137.166846 37.441911 -gcp 7001 7363 137.2044087 37.410536</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="18.5" thickBot="1">
       <c r="B184" s="1" t="s">
         <v>188</v>
       </c>
@@ -6534,8 +8581,12 @@
       <c r="H184">
         <v>7364</v>
       </c>
-    </row>
-    <row r="185" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I184" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7363 137.2044087 37.410536 -gcp 7001 0 137.2419713 37.441911 -gcp 0 0 137.2044087 37.441911 -gcp 7001 7363 137.2419713 37.410536</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" ht="18.5" thickBot="1">
       <c r="B185" s="1" t="s">
         <v>189</v>
       </c>
@@ -6557,8 +8608,12 @@
       <c r="H185">
         <v>7364</v>
       </c>
-    </row>
-    <row r="186" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I185" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7363 137.2419713 37.410536 -gcp 7001 0 137.279534 37.441911 -gcp 0 0 137.2419713 37.441911 -gcp 7001 7363 137.279534 37.410536</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" ht="18.5" thickBot="1">
       <c r="B186" s="1" t="s">
         <v>190</v>
       </c>
@@ -6580,8 +8635,12 @@
       <c r="H186">
         <v>7367</v>
       </c>
-    </row>
-    <row r="187" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I186" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7366 137.166846 37.441911 -gcp 7001 0 137.2044087 37.473286 -gcp 0 0 137.166846 37.473286 -gcp 7001 7366 137.2044087 37.441911</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="18.5" thickBot="1">
       <c r="B187" s="1" t="s">
         <v>191</v>
       </c>
@@ -6603,8 +8662,12 @@
       <c r="H187">
         <v>7367</v>
       </c>
-    </row>
-    <row r="188" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I187" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7366 137.2044087 37.441911 -gcp 7001 0 137.2419713 37.473286 -gcp 0 0 137.2044087 37.473286 -gcp 7001 7366 137.2419713 37.441911</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" ht="18.5" thickBot="1">
       <c r="B188" s="1" t="s">
         <v>192</v>
       </c>
@@ -6626,8 +8689,12 @@
       <c r="H188">
         <v>7367</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I188" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7366 137.2419713 37.441911 -gcp 7001 0 137.279534 37.473286 -gcp 0 0 137.2419713 37.473286 -gcp 7001 7366 137.279534 37.441911</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" ht="18.5" thickBot="1">
       <c r="B189" s="1" t="s">
         <v>199</v>
       </c>
@@ -6649,8 +8716,12 @@
       <c r="H189">
         <v>7662</v>
       </c>
-    </row>
-    <row r="190" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I189" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7661 137.283411 37.437044 -gcp 5729 0 137.3141525 37.46967467 -gcp 0 0 137.283411 37.46967467 -gcp 5729 7661 137.3141525 37.437044</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" ht="18.5" thickBot="1">
       <c r="B190" s="1" t="s">
         <v>200</v>
       </c>
@@ -6672,8 +8743,12 @@
       <c r="H190">
         <v>7662</v>
       </c>
-    </row>
-    <row r="191" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I190" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7661 137.3141525 37.437044 -gcp 5729 0 137.344894 37.46967467 -gcp 0 0 137.3141525 37.46967467 -gcp 5729 7661 137.344894 37.437044</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="18.5" thickBot="1">
       <c r="B191" s="1" t="s">
         <v>201</v>
       </c>
@@ -6695,8 +8770,12 @@
       <c r="H191">
         <v>7665</v>
       </c>
-    </row>
-    <row r="192" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I191" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7664 137.283411 37.46967467 -gcp 5729 0 137.3141525 37.50230533 -gcp 0 0 137.283411 37.50230533 -gcp 5729 7664 137.3141525 37.46967467</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" ht="18.5" thickBot="1">
       <c r="B192" s="1" t="s">
         <v>202</v>
       </c>
@@ -6718,8 +8797,12 @@
       <c r="H192">
         <v>7665</v>
       </c>
-    </row>
-    <row r="193" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I192" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7664 137.3141525 37.46967467 -gcp 5729 0 137.344894 37.50230533 -gcp 0 0 137.3141525 37.50230533 -gcp 5729 7664 137.344894 37.46967467</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="18.5" thickBot="1">
       <c r="B193" s="1" t="s">
         <v>203</v>
       </c>
@@ -6741,8 +8824,12 @@
       <c r="H193">
         <v>7669</v>
       </c>
-    </row>
-    <row r="194" spans="2:8" ht="18.5" thickBot="1">
+      <c r="I193" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7668 137.283411 37.50230533 -gcp 5729 0 137.3141525 37.534936 -gcp 0 0 137.283411 37.534936 -gcp 5729 7668 137.3141525 37.50230533</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="18.5" thickBot="1">
       <c r="B194" s="1" t="s">
         <v>204</v>
       </c>
@@ -6763,6 +8850,37 @@
       </c>
       <c r="H194">
         <v>7669</v>
+      </c>
+      <c r="I194" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 7668 137.3141525 37.50230533 -gcp 5729 0 137.344894 37.534936 -gcp 0 0 137.3141525 37.534936 -gcp 5729 7668 137.344894 37.50230533</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="18.5" thickBot="1">
+      <c r="B195" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C195" s="2">
+        <v>37.490796000000003</v>
+      </c>
+      <c r="D195" s="2">
+        <v>137.275329</v>
+      </c>
+      <c r="E195" s="2">
+        <v>37.526690000000002</v>
+      </c>
+      <c r="F195" s="2">
+        <v>137.28052099999999</v>
+      </c>
+      <c r="G195" s="14">
+        <v>967</v>
+      </c>
+      <c r="H195" s="14">
+        <v>8434</v>
+      </c>
+      <c r="I195" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-gcp 0 8433 137.275329 37.490796 -gcp 966 0 137.280521 37.52669 -gcp 0 0 137.275329 37.52669 -gcp 966 8433 137.280521 37.490796</v>
       </c>
     </row>
   </sheetData>
